--- a/biology/Botanique/Achille_Italo_Forti/Achille_Italo_Forti.xlsx
+++ b/biology/Botanique/Achille_Italo_Forti/Achille_Italo_Forti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Israele Achille Italo Forti (né à Vérone, le 28 novembre 1878 et mort dans cette même ville, le 11 février 1937) est un botaniste, phycologue et mécène italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Achille Forti a publié plusieurs travaux en collaboration avec Giovanni Battista De Toni à qui il a ensuite consacré une notice biographique.
 (it) Achille Italo Forti, « Diatomee dell'antico corso Plavense, saggi neritici raccolti dal Prof. Ettore De Toni nel'autunno 1896 », La Nuova Notarisia, vol. 10, no 3,‎ 1899, p. 47-163.
@@ -551,7 +565,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Galleria d'arte moderna Achille Forti (it) installée dans le Palazzo Emilei Forti (it), où vécut Achille Forti et qui abritait ses collections naturalistes et d'œuvres d'art léguées à la ville de Vérone, commémore son souvenir.
 </t>
